--- a/Documentacion/BD/Diccionario de Datos.xlsx
+++ b/Documentacion/BD/Diccionario de Datos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D13E0-D766-46E5-9914-D7D017FDE6F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2F07B-4E35-49CF-B89D-CFEF3B35022D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,22 +31,181 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>correo electronico</t>
-  </si>
-  <si>
-    <t>nombre de usuario</t>
-  </si>
-  <si>
-    <t>Nombre de la persona</t>
-  </si>
-  <si>
-    <t>Apellido de la persona</t>
-  </si>
-  <si>
-    <t>fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>idioma</t>
+    <t>usr_ID</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>tm_usr_user</t>
+  </si>
+  <si>
+    <t>usr_name</t>
+  </si>
+  <si>
+    <t>indentificacion tabla</t>
+  </si>
+  <si>
+    <t>Tabla de usuario</t>
+  </si>
+  <si>
+    <t>usr_email</t>
+  </si>
+  <si>
+    <t>email del usuario</t>
+  </si>
+  <si>
+    <t>nombre del usuario dentro de la plataforma</t>
+  </si>
+  <si>
+    <t>usr_NamePerson</t>
+  </si>
+  <si>
+    <t>nombre de la persona natural/juridica</t>
+  </si>
+  <si>
+    <t>usr_birthday</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento del usuario</t>
+  </si>
+  <si>
+    <t>Etiqueta para buscar la traduccion</t>
+  </si>
+  <si>
+    <t>lde_value</t>
+  </si>
+  <si>
+    <t>lde_key</t>
+  </si>
+  <si>
+    <t>Traduccion de la etiqueta</t>
+  </si>
+  <si>
+    <t>tm_lde_LanguajeDetail</t>
+  </si>
+  <si>
+    <t>tm_lan_Languaje</t>
+  </si>
+  <si>
+    <t>lan_name</t>
+  </si>
+  <si>
+    <t>Nombre del lenguaje en qque configurara la pagina</t>
+  </si>
+  <si>
+    <t>tm_acc_Access</t>
+  </si>
+  <si>
+    <t>lan_id</t>
+  </si>
+  <si>
+    <t>acc_id</t>
+  </si>
+  <si>
+    <t>Nombre del privilegio</t>
+  </si>
+  <si>
+    <t>acc_Key</t>
+  </si>
+  <si>
+    <t>tm_pro_Profile</t>
+  </si>
+  <si>
+    <t>pro_id</t>
+  </si>
+  <si>
+    <t>pro_Name</t>
+  </si>
+  <si>
+    <t>Nombre del perfil</t>
+  </si>
+  <si>
+    <t>tm_ctx_ContextText</t>
+  </si>
+  <si>
+    <t>ctx_id</t>
+  </si>
+  <si>
+    <t>ctx_key</t>
+  </si>
+  <si>
+    <t>Identificador del contenido</t>
+  </si>
+  <si>
+    <t>informacion</t>
+  </si>
+  <si>
+    <t>ctx_value</t>
+  </si>
+  <si>
+    <t>Tabla que tiene las traducciones para cada idioma</t>
+  </si>
+  <si>
+    <t>Tabla que tiene todos los idiomas</t>
+  </si>
+  <si>
+    <t>Tabla que tiene los privilegios</t>
+  </si>
+  <si>
+    <t>Tabla que tiene los perfiles de usuarios</t>
+  </si>
+  <si>
+    <t>Tabla que tiene el contenido del site</t>
+  </si>
+  <si>
+    <t>tm_pac_ProfileAccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accesos asignados a los perfiles </t>
+  </si>
+  <si>
+    <t>tm_aud_Audit</t>
+  </si>
+  <si>
+    <t>aud_id</t>
+  </si>
+  <si>
+    <t>aud_date</t>
+  </si>
+  <si>
+    <t>aud_action</t>
+  </si>
+  <si>
+    <t>aud_table</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>Fecha de la auditoria</t>
+  </si>
+  <si>
+    <t>Accion, select/insert/update</t>
+  </si>
+  <si>
+    <t>Tabla relacionada</t>
+  </si>
+  <si>
+    <t>tm_dau_DetailAudit</t>
+  </si>
+  <si>
+    <t>dau_id</t>
+  </si>
+  <si>
+    <t>dau_before</t>
+  </si>
+  <si>
+    <t>dau_after</t>
+  </si>
+  <si>
+    <t>tabla del detalle de los insert/update</t>
+  </si>
+  <si>
+    <t>valor anterior</t>
+  </si>
+  <si>
+    <t>valor nuevo</t>
   </si>
 </sst>
 </file>
@@ -364,61 +523,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/BD/Diccionario de Datos.xlsx
+++ b/Documentacion/BD/Diccionario de Datos.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2F07B-4E35-49CF-B89D-CFEF3B35022D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Nombre</t>
   </si>
@@ -206,12 +205,42 @@
   </si>
   <si>
     <t>valor nuevo</t>
+  </si>
+  <si>
+    <t>dau_column</t>
+  </si>
+  <si>
+    <t>nombre de la columna que se modifico</t>
+  </si>
+  <si>
+    <t>tm_wse_web_settings</t>
+  </si>
+  <si>
+    <t>wse_id</t>
+  </si>
+  <si>
+    <t>wse_value</t>
+  </si>
+  <si>
+    <t>wse_key</t>
+  </si>
+  <si>
+    <t>Tabla que contiene la configuracion general del sitio</t>
+  </si>
+  <si>
+    <t>id de la tabla</t>
+  </si>
+  <si>
+    <t>identificador de la configuracion</t>
+  </si>
+  <si>
+    <t>valor de la configuracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,22 +551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -551,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -559,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -575,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -583,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -599,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -607,7 +636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -615,7 +644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -623,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -631,7 +660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -639,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -647,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -655,7 +684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -663,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -671,7 +700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -679,7 +708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -687,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -695,7 +724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -703,7 +732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -711,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -719,7 +748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -727,7 +756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -735,7 +764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -743,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -751,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -759,7 +788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -767,7 +796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -775,7 +804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -783,7 +812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>56</v>
       </c>
@@ -791,24 +820,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/BD/Diccionario de Datos.xlsx
+++ b/Documentacion/BD/Diccionario de Datos.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
